--- a/报名信息/第一届开发者报名表.xlsx
+++ b/报名信息/第一届开发者报名表.xlsx
@@ -1,28 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
+<workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x15ac">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86186\Desktop\GDSN1\GameDevSolitaireNo1\报名信息\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F01169D-D566-48E9-AB00-9AE35DB901C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <x15ac:absPath url="C:\Users\86186\Desktop\GDSN1\GameDevSolitaireNo1\报名信息\"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="3480" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t/>
+  </si>
   <si>
     <t>编号</t>
   </si>
@@ -51,9 +48,6 @@
     <t>独游凯恩</t>
   </si>
   <si>
-    <t>https://space.bilibili.com/1014603451</t>
-  </si>
-  <si>
     <t>Godot</t>
   </si>
   <si>
@@ -69,72 +63,130 @@
     <t>02</t>
   </si>
   <si>
+    <t>路过的红色皮卡</t>
+  </si>
+  <si>
+    <t>html+css+js</t>
+  </si>
+  <si>
+    <t>Godot Unity</t>
+  </si>
+  <si>
+    <t>qq1339722514</t>
+  </si>
+  <si>
     <t>03</t>
   </si>
   <si>
-    <t>html+css+js</t>
-  </si>
-  <si>
-    <t>Godot Unity</t>
-  </si>
-  <si>
-    <t>qq1339722514</t>
-  </si>
-  <si>
-    <t>路过的红色皮卡</t>
+    <t>Gove</t>
+  </si>
+  <si>
+    <t>Unity</t>
+  </si>
+  <si>
+    <t>qq3425519400</t>
+  </si>
+  <si>
+    <t>👈 非范例，Gove将参与开发</t>
+  </si>
+  <si>
+    <r>
+      <t>https://space.bilibili.com/1014603451</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>https://space.bilibili.com/66599049</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>https://space.bilibili.com/66599049</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <r>
+      <rPr>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF175CEB"/>
+        <sz val="11"/>
+        <u/>
+      </rPr>
+      <t>https://space.bilibili.com/511580861</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="300" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <color rgb="FF175CEB"/>
+      <sz val="10"/>
       <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <family val="3"/>
-      <charset val="134"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -143,42 +195,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+  <cellStyleXfs>
+    <xf numFmtId="300" fontId="4" fillId="0" borderId="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="300" fontId="5" fillId="2" borderId="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="300" fontId="4" fillId="0" borderId="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="300" fontId="5" fillId="2" borderId="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="300" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -431,100 +482,117 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr/>
+  <dimension ref="G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="24.77734375" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="28.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.66406" customWidth="1"/>
+    <col min="2" max="2" width="17.8867" customWidth="1"/>
+    <col min="3" max="3" width="40.6641" customWidth="1"/>
+    <col min="4" max="4" width="21.6641" customWidth="1"/>
+    <col min="5" max="5" width="24.7773" customWidth="1"/>
+    <col min="6" max="6" width="15.1094" customWidth="1"/>
+    <col min="7" max="7" width="28.332" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>15</v>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{747C1BF3-3088-464B-9D95-5A0178F61F9C}"/>
+    <hyperlink ref="C2" r:id="rId0"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -532,28 +600,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/报名信息/第一届开发者报名表.xlsx
+++ b/报名信息/第一届开发者报名表.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x15ac">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
-  <x15ac:absPath url="C:\Users\86186\Desktop\GDSN1\GameDevSolitaireNo1\报名信息\"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuanjie_project\GameDevSolitaireNo1\报名信息\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC26BF5C-409D-4D3E-AF92-63EDE6ED4786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>编号</t>
   </si>
@@ -90,81 +93,97 @@
     <t>👈 非范例，Gove将参与开发</t>
   </si>
   <si>
-    <r>
-      <t>https://space.bilibili.com/1014603451</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>https://space.bilibili.com/66599049</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>https://space.bilibili.com/1014603451</t>
+  </si>
+  <si>
+    <t>https://space.bilibili.com/66599049</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
+        <u/>
+        <sz val="11"/>
         <color rgb="FF175CEB"/>
-        <sz val="11"/>
-        <u/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>https://space.bilibili.com/511580861</t>
     </r>
+  </si>
+  <si>
+    <t>季伯常</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://space.bilibili.com/78090201</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unity</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq2789794681</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wdf怎么会有人会两个引擎(叉腰）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="300" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="等线"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <color rgb="FF175CEB"/>
-      <sz val="10"/>
-      <u/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Segoe UI Symbol"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <family val="3"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF175CEB"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <family val="3"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -195,41 +214,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs>
-    <xf numFmtId="300" fontId="4" fillId="0" borderId="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="5" fillId="2" borderId="1" xfId="0">
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="4" fillId="0" borderId="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="5" fillId="2" borderId="1" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles>
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -482,117 +508,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr/>
-  <dimension ref="G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showGridLines="1" tabSelected="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.66406" customWidth="1"/>
-    <col min="2" max="2" width="17.8867" customWidth="1"/>
-    <col min="3" max="3" width="40.6641" customWidth="1"/>
-    <col min="4" max="4" width="21.6641" customWidth="1"/>
-    <col min="5" max="5" width="24.7773" customWidth="1"/>
-    <col min="6" max="6" width="15.1094" customWidth="1"/>
-    <col min="7" max="7" width="28.332" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" customWidth="1"/>
+    <col min="3" max="3" width="40.6328125" customWidth="1"/>
+    <col min="4" max="4" width="21.6328125" customWidth="1"/>
+    <col min="5" max="5" width="24.7265625" customWidth="1"/>
+    <col min="6" max="6" width="15.08984375" customWidth="1"/>
+    <col min="7" max="7" width="28.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId0"/>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{A4868B7E-BBD2-4C54-8042-AA3058FD1A79}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -600,28 +650,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/报名信息/第一届开发者报名表.xlsx
+++ b/报名信息/第一届开发者报名表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RgProject\MergeBug\报名信息\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\GameDevSolitaireNo1\报名信息\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C65EE2-2CED-409F-A23E-5A853CBA5393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87031051-F067-43A0-86EF-9BE471296585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8150" yWindow="4370" windowWidth="28800" windowHeight="15420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>编号</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>qq3425519400</t>
-  </si>
-  <si>
-    <t>👈 非范例，Gove将参与开发</t>
   </si>
   <si>
     <t>04</t>
@@ -184,6 +181,68 @@
   </si>
   <si>
     <t>初四和初六满了，其他时间都可以</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>尘聲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://space.bilibili.com/3255145</t>
+  </si>
+  <si>
+    <t>Ureal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq1780389351</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>👈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 非范例，Gove将参与开发</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>👈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 非范例，会两个引擎不是很正常吗</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -191,7 +250,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +282,19 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -256,50 +328,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -687,199 +741,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.6328125" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" customWidth="1"/>
-    <col min="3" max="3" width="45.26953125" customWidth="1"/>
-    <col min="4" max="4" width="21.6328125" customWidth="1"/>
-    <col min="5" max="5" width="24.7265625" customWidth="1"/>
-    <col min="6" max="6" width="15.08984375" customWidth="1"/>
-    <col min="7" max="7" width="28.36328125" customWidth="1"/>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="45.25" customWidth="1"/>
+    <col min="4" max="4" width="21.625" customWidth="1"/>
+    <col min="5" max="5" width="24.75" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
+    <col min="7" max="7" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="5" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>30</v>
+      <c r="E7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="7"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="9" t="s">
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>47</v>
+      <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -904,7 +979,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -918,7 +993,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
